--- a/通信协议及程序相关说明.xlsx
+++ b/通信协议及程序相关说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,15 +123,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">远程联动 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主三相  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主一故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主二故障</t>
+  </si>
+  <si>
+    <t>断相过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A泵低速灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主一备二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B泵低速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A泵低速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A泵停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A泵高速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B泵高速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A泵停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A泵高速灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B泵停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.显示板，指示板状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">主板通信 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主板通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">远程联动 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水泵动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">远程联动 </t>
+    <t>水泵动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,102 +246,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">主三相  </t>
+    <t>压力工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主三相 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主一故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主二故障</t>
-  </si>
-  <si>
-    <t>断相过载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A泵停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A泵低速灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A泵高速灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主一备二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b泵停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B泵停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B泵低速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B泵高速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统复位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A泵低速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A泵停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A泵高速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B泵高速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,77 +856,77 @@
     <row r="7" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -929,28 +949,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -958,10 +978,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -972,7 +992,59 @@
     </row>
     <row r="14" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/通信协议及程序相关说明.xlsx
+++ b/通信协议及程序相关说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,295 @@
   </si>
   <si>
     <t>主一故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.菜单功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压上限值设置0-10%；正偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压下限值设置0-10%；负偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流基准值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流上限值设置0-10%；正偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流下限值设置0-10%；负偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流互感器变比0-99；0表示电流异常报警功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注1：显示代码中"xx"表示可设定的0-9数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  解  释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.主板按键操作说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY3</t>
+  </si>
+  <si>
+    <t>KEY4</t>
+  </si>
+  <si>
+    <t>长按3秒进入参数设置模式；在参数设置模式下，短按进行参数切换，切换顺序如上表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在参数设置模式下，将对应数值+1；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在参数设置模式下，将对应数值-1；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保存退出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.Flash数据存储：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.存储地址：0x0800FC00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash存储起始地址 为Flash最后一页，大小为1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流变比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA=UseFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注2：在参数设置中，30秒内无操作自动返回主菜单(设置参数不保存)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,16 +566,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -429,11 +732,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -444,9 +841,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -748,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,54 +1492,660 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
         <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
         <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="12">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="12">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="12">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="12">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="12">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="12">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="12">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="12">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="12">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="12">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="12">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="12">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="12">
+        <v>15</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="12">
+        <v>2</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="12">
+        <v>3</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="13">
+        <v>4</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="40">
+        <v>0</v>
+      </c>
+      <c r="C56" s="40">
+        <v>1</v>
+      </c>
+      <c r="D56" s="40">
+        <v>2</v>
+      </c>
+      <c r="E56" s="40">
+        <v>3</v>
+      </c>
+      <c r="F56" s="40">
+        <v>4</v>
+      </c>
+      <c r="G56" s="40">
+        <v>5</v>
+      </c>
+      <c r="H56" s="40">
+        <v>6</v>
+      </c>
+      <c r="I56" s="40">
+        <v>7</v>
+      </c>
+      <c r="J56" s="40">
+        <v>8</v>
+      </c>
+      <c r="K56" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="10">
+        <v>0</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+      <c r="D57" s="10">
+        <v>4</v>
+      </c>
+      <c r="E57" s="10">
+        <v>6</v>
+      </c>
+      <c r="F57" s="10">
+        <v>8</v>
+      </c>
+      <c r="G57" s="10">
+        <v>10</v>
+      </c>
+      <c r="H57" s="10">
+        <v>12</v>
+      </c>
+      <c r="I57" s="10">
+        <v>14</v>
+      </c>
+      <c r="J57" s="10">
+        <v>16</v>
+      </c>
+      <c r="K57" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="41">
+        <v>10</v>
+      </c>
+      <c r="C59" s="41">
+        <v>11</v>
+      </c>
+      <c r="D59" s="41">
+        <v>12</v>
+      </c>
+      <c r="E59" s="41">
+        <v>13</v>
+      </c>
+      <c r="F59" s="41">
+        <v>14</v>
+      </c>
+      <c r="G59" s="41">
+        <v>15</v>
+      </c>
+      <c r="H59" s="41">
+        <v>16</v>
+      </c>
+      <c r="I59" s="41">
+        <v>17</v>
+      </c>
+      <c r="J59" s="41">
+        <v>18</v>
+      </c>
+      <c r="K59" s="41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="10">
+        <v>20</v>
+      </c>
+      <c r="C60" s="10">
+        <v>22</v>
+      </c>
+      <c r="D60" s="10">
+        <v>24</v>
+      </c>
+      <c r="E60" s="10">
+        <v>26</v>
+      </c>
+      <c r="F60" s="10">
+        <v>28</v>
+      </c>
+      <c r="G60" s="10">
+        <v>30</v>
+      </c>
+      <c r="H60" s="10">
+        <v>32</v>
+      </c>
+      <c r="I60" s="10">
+        <v>34</v>
+      </c>
+      <c r="J60" s="10">
+        <v>36</v>
+      </c>
+      <c r="K60" s="10">
+        <v>38</v>
+      </c>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61" s="37"/>
+    </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/通信协议及程序相关说明.xlsx
+++ b/通信协议及程序相关说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,248 +302,280 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Hbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fbxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压上限值设置0-10%；正偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压下限值设置0-10%；负偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流上限值设置0-10%；正偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流下限值设置0-10%；负偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量上限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量下限值0-99；若上下限值相同，表示该功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流互感器变比0-99；0表示电流异常报警功能关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注1：显示代码中"xx"表示可设定的0-9数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  解  释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.主板按键操作说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY3</t>
+  </si>
+  <si>
+    <t>KEY4</t>
+  </si>
+  <si>
+    <t>长按3秒进入参数设置模式；在参数设置模式下，短按进行参数切换，切换顺序如上表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在参数设置模式下，将对应数值+1；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在参数设置模式下，将对应数值-1；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保存退出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.Flash数据存储：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.存储地址：0x0800FC00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash存储起始地址 为Flash最后一页，大小为1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流变比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA=UseFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注2：在参数设置中，30秒内无操作自动返回主菜单(设置参数不保存)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流基数(值0-600A)；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.除湿功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HAxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hbxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pbxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fbxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压上限值设置0-10%；正偏差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压下限值设置0-10%；负偏差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流基准值；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流上限值设置0-10%；正偏差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流下限值设置0-10%；负偏差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度上限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度下限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度上限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度下限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力上限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力下限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量上限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量下限值0-99；若上下限值相同，表示该功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流互感器变比0-99；0表示电流异常报警功能关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注1：显示代码中"xx"表示可设定的0-9数值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  解  释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.主板按键操作说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY3</t>
-  </si>
-  <si>
-    <t>KEY4</t>
-  </si>
-  <si>
-    <t>长按3秒进入参数设置模式；在参数设置模式下，短按进行参数切换，切换顺序如上表。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在参数设置模式下，将对应数值+1；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在参数设置模式下，将对应数值-1；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据保存退出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.Flash数据存储：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01.存储地址：0x0800FC00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flash存储起始地址 为Flash最后一页，大小为1K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流变比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址偏移量：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址偏移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址偏移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAA=UseFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注2：在参数设置中，30秒内无操作自动返回主菜单(设置参数不保存)。</t>
+    <t>除湿开启：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除湿关闭：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度&lt;(湿度上限值(HAxx)-5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：该功能目的防止湿度在临界值跳动时，造成除湿设备频繁启停损坏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度&gt;湿度上限值(HAxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除湿禁用：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度上限值(HAxx)=0 或者 湿度上限值(HAxx)==湿度下限值(HAxx)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -863,6 +895,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -875,65 +961,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1240,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L61"/>
+  <dimension ref="A2:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1525,19 +1566,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
+      <c r="B22" s="10">
+        <v>6</v>
+      </c>
       <c r="C22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
+      <c r="B23" s="10">
+        <v>7</v>
+      </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
@@ -1554,13 +1601,13 @@
       <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="D26" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
@@ -1569,13 +1616,13 @@
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="D27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
@@ -1584,13 +1631,13 @@
       <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="D28" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
@@ -1599,13 +1646,13 @@
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="D29" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
@@ -1614,13 +1661,13 @@
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="D30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
@@ -1629,13 +1676,13 @@
       <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="D31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
@@ -1644,13 +1691,13 @@
       <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="D32" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
@@ -1659,13 +1706,13 @@
       <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="D33" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
@@ -1674,175 +1721,175 @@
       <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="D34" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>15</v>
       </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
+      <c r="B43" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>1</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
@@ -1851,101 +1898,101 @@
       <c r="C48" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
+      <c r="D48" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>3</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13">
         <v>4</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="40">
+      <c r="A56" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="21">
         <v>0</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="21">
         <v>1</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="21">
         <v>2</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="21">
         <v>3</v>
       </c>
-      <c r="F56" s="40">
+      <c r="F56" s="21">
         <v>4</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="21">
         <v>5</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="21">
         <v>6</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="21">
         <v>7</v>
       </c>
-      <c r="J56" s="40">
+      <c r="J56" s="21">
         <v>8</v>
       </c>
-      <c r="K56" s="40">
+      <c r="K56" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="38" t="s">
-        <v>128</v>
+      <c r="A57" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="B57" s="10">
         <v>0</v>
@@ -1979,78 +2026,78 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="F58" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="G58" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="H58" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="I58" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="J58" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="K58" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K58" s="37" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="41">
+      <c r="A59" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="22">
         <v>10</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="22">
         <v>11</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="22">
         <v>12</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E59" s="22">
         <v>13</v>
       </c>
-      <c r="F59" s="41">
+      <c r="F59" s="22">
         <v>14</v>
       </c>
-      <c r="G59" s="41">
+      <c r="G59" s="22">
         <v>15</v>
       </c>
-      <c r="H59" s="41">
+      <c r="H59" s="22">
         <v>16</v>
       </c>
-      <c r="I59" s="41">
+      <c r="I59" s="22">
         <v>17</v>
       </c>
-      <c r="J59" s="41">
+      <c r="J59" s="22">
         <v>18</v>
       </c>
-      <c r="K59" s="41">
+      <c r="K59" s="22">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="38" t="s">
-        <v>129</v>
+      <c r="A60" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="B60" s="10">
         <v>20</v>
@@ -2085,48 +2132,112 @@
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="37" t="s">
+      <c r="A61" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="37" t="s">
+      <c r="F61" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L61" s="37"/>
-    </row>
+      <c r="I61" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="18"/>
+    </row>
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="2:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D26:H26"/>
+  <mergeCells count="27">
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="B42:H42"/>
@@ -2136,15 +2247,15 @@
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D26:H26"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通信协议及程序相关说明.xlsx
+++ b/通信协议及程序相关说明.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="星三角项目全局使用数据记录表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="190">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,6 +576,185 @@
   </si>
   <si>
     <t>湿度上限值(HAxx)=0 或者 湿度上限值(HAxx)==湿度下限值(HAxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.CAN通信协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据1</t>
+  </si>
+  <si>
+    <t>数据2</t>
+  </si>
+  <si>
+    <t>数据3</t>
+  </si>
+  <si>
+    <t>数据4</t>
+  </si>
+  <si>
+    <t>数据5</t>
+  </si>
+  <si>
+    <t>数据6</t>
+  </si>
+  <si>
+    <t>数据7</t>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主三相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主二故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主一动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主二动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主二备一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主一备二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit0</t>
+  </si>
+  <si>
+    <t>Bit1</t>
+  </si>
+  <si>
+    <t>Bit2</t>
+  </si>
+  <si>
+    <t>Bit3</t>
+  </si>
+  <si>
+    <t>Bit4</t>
+  </si>
+  <si>
+    <t>Bit5</t>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压低位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流低位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断相/过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主一备二,按键按下值为0x01;无键按下，值为0x00.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_Dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动模式,按键按下值为0x02;无键按下，值为0x00.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主二备一,按键按下值为0x03;无键按下，值为0x00.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_Dat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权进入和急启按键,低四位为授权值，高四位为急启值。0x5为按键，0x0为松开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -855,6 +1034,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -862,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -910,17 +1163,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -943,37 +1229,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1281,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L68"/>
+  <dimension ref="A2:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1601,13 +1874,13 @@
       <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
@@ -1616,13 +1889,13 @@
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
@@ -1631,13 +1904,13 @@
       <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
@@ -1646,13 +1919,13 @@
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
@@ -1661,13 +1934,13 @@
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
@@ -1676,13 +1949,13 @@
       <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
@@ -1691,13 +1964,13 @@
       <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
@@ -1706,13 +1979,13 @@
       <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
@@ -1721,13 +1994,13 @@
       <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
@@ -1736,13 +2009,13 @@
       <c r="C35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
@@ -1751,13 +2024,13 @@
       <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
@@ -1766,13 +2039,13 @@
       <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
@@ -1781,13 +2054,13 @@
       <c r="C38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
@@ -1796,13 +2069,13 @@
       <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
@@ -1811,27 +2084,27 @@
       <c r="C40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>15</v>
       </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="34"/>
@@ -1842,15 +2115,15 @@
       <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
@@ -1868,13 +2141,13 @@
       <c r="C46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
@@ -1883,13 +2156,13 @@
       <c r="C47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
@@ -1928,13 +2201,13 @@
       <c r="C50" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
@@ -2176,59 +2449,380 @@
       <c r="B64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="26"/>
-    </row>
-    <row r="65" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="24"/>
-    </row>
-    <row r="66" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+    </row>
+    <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
-    </row>
-    <row r="67" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="42" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
-    </row>
-    <row r="68" spans="2:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J71" s="45"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="45"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="45"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B75" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B81" s="5"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="49"/>
+    </row>
+    <row r="83" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="52"/>
+    </row>
+    <row r="84" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="52"/>
+    </row>
+    <row r="85" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="52"/>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="I86" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="31">
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
     <mergeCell ref="C64:I64"/>
     <mergeCell ref="C65:I65"/>
     <mergeCell ref="C66:I66"/>
@@ -2238,24 +2832,6 @@
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通信协议及程序相关说明.xlsx
+++ b/通信协议及程序相关说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,119 +499,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA=UseFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注2：在参数设置中，30秒内无操作自动返回主菜单(设置参数不保存)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流基数(值0-600A)；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.除湿功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除湿开启：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除湿关闭：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：该功能目的防止湿度在临界值跳动时，造成除湿设备频繁启停损坏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度&gt;湿度上限值(HAxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除湿禁用：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度上限值(HAxx)=0 或者 湿度上限值(HAxx)==湿度下限值(HAxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.CAN通信协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据1</t>
+  </si>
+  <si>
+    <t>数据2</t>
+  </si>
+  <si>
+    <t>数据3</t>
+  </si>
+  <si>
+    <t>数据4</t>
+  </si>
+  <si>
+    <t>数据5</t>
+  </si>
+  <si>
+    <t>数据6</t>
+  </si>
+  <si>
+    <t>数据7</t>
+  </si>
+  <si>
     <t>0x00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址偏移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址偏移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAA=UseFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注2：在参数设置中，30秒内无操作自动返回主菜单(设置参数不保存)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流基数(值0-600A)；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.除湿功能：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除湿开启：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除湿关闭：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度&lt;(湿度上限值(HAxx)-5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：该功能目的防止湿度在临界值跳动时，造成除湿设备频繁启停损坏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度&gt;湿度上限值(HAxx)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除湿禁用：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度上限值(HAxx)=0 或者 湿度上限值(HAxx)==湿度下限值(HAxx)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.CAN通信协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据1</t>
-  </si>
-  <si>
-    <t>数据2</t>
-  </si>
-  <si>
-    <t>数据3</t>
-  </si>
-  <si>
-    <t>数据4</t>
-  </si>
-  <si>
-    <t>数据5</t>
-  </si>
-  <si>
-    <t>数据6</t>
-  </si>
-  <si>
-    <t>数据7</t>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,6 +747,22 @@
   </si>
   <si>
     <t>流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度&lt;湿度下限值(Hbxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartMode：启动方式0x00-&gt;星三角;直接；自耦;风机.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1163,18 +1171,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1208,6 +1218,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1229,24 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1554,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L86"/>
+  <dimension ref="A2:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,13 +1885,13 @@
       <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
@@ -1920,7 +1931,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -2007,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>83</v>
@@ -2097,33 +2108,33 @@
         <v>15</v>
       </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
+      <c r="B43" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
@@ -2141,13 +2152,13 @@
       <c r="C46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
@@ -2156,13 +2167,13 @@
       <c r="C47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
@@ -2171,13 +2182,13 @@
       <c r="C48" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
@@ -2186,13 +2197,13 @@
       <c r="C49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="35"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13">
@@ -2201,13 +2212,13 @@
       <c r="C50" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
@@ -2230,7 +2241,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="21">
         <v>0</v>
@@ -2265,7 +2276,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="10">
         <v>0</v>
@@ -2300,7 +2311,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>106</v>
@@ -2309,7 +2320,7 @@
         <v>107</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>108</v>
@@ -2335,7 +2346,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="22">
         <v>10</v>
@@ -2370,7 +2381,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="10">
         <v>20</v>
@@ -2406,7 +2417,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>115</v>
@@ -2421,10 +2432,10 @@
         <v>118</v>
       </c>
       <c r="F61" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>120</v>
@@ -2433,387 +2444,416 @@
         <v>120</v>
       </c>
       <c r="J61" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="K61" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="L61" s="18"/>
     </row>
-    <row r="63" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="18"/>
+    </row>
+    <row r="65" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
+    </row>
+    <row r="67" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="23" t="s">
+    </row>
+    <row r="72" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="24"/>
-    </row>
-    <row r="65" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="26"/>
-    </row>
-    <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="26"/>
-    </row>
-    <row r="67" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="C73" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="I73" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J71" s="45"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="23"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B77" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="23"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="45"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="45"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="45"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="2"/>
-      <c r="C78" s="3" t="s">
+      <c r="E81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B83" s="5"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="5"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="49"/>
-    </row>
-    <row r="83" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="52"/>
-    </row>
-    <row r="84" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="52"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="52"/>
-    </row>
-    <row r="86" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="I86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="45"/>
+    </row>
+    <row r="86" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="45"/>
+    </row>
+    <row r="87" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="45"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="I88" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C83:J83"/>
+  <mergeCells count="32">
     <mergeCell ref="C84:J84"/>
     <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="B42:H42"/>
@@ -2822,16 +2862,22 @@
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
     <mergeCell ref="D38:H38"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C65:I65"/>
     <mergeCell ref="C66:I66"/>
-    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B69:I69"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
+    <mergeCell ref="B63:K63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
